--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="EmailRegistration" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="SetPassword" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="LoginAsStudent" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="PersonalDetails" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -67,7 +71,7 @@
     <t xml:space="preserve">Thangaraj</t>
   </si>
   <si>
-    <t xml:space="preserve">priya.t+student1@icanio.com</t>
+    <t xml:space="preserve">priya.t+studentdemo1@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Na</t>
@@ -89,20 +93,88 @@
   </si>
   <si>
     <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priya@2606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emailid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addressline1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addressline2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pincode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO 3/343, Korai road, Indhira nagar, Shanmugapuram, Ambattur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near to Kallikuppam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">india</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,6 +201,21 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,17 +260,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -195,6 +298,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBCBEC4"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -311,97 +474,97 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>8122448784</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>2024</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="priya.t+student1@icanio.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="priya.t+studentdemo1@icanio.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -411,4 +574,222 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Priya@2606"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="Priya@2606"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="priya.t+studentdemo1@icanio.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Priya@2606"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>34876</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>600099</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,6 +13,8 @@
     <sheet name="SetPassword" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="LoginAsStudent" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="PersonalDetails" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="EdicationalDetails" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="AdditionalDetails" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -71,94 +73,184 @@
     <t xml:space="preserve">Thangaraj</t>
   </si>
   <si>
-    <t xml:space="preserve">priya.t+studentdemo1@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamil Na</t>
+    <t xml:space="preserve">priya.t+student31@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil Nadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 Global Institute of Engineering and Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPUTER SCIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priya@2606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emailid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addressline1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addressline2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pincode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO 3/343, Korai road, Indhira nagar, Shanmugapuram, Ambattur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near to Kallikuppam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">india</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schlname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthSchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthmonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthpercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthcity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugpercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sethu Bhaskara MHSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute Of Open Schooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil</t>
   </si>
   <si>
     <t xml:space="preserve">Chenna</t>
   </si>
   <si>
-    <t xml:space="preserve">Demo College of engineering 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPUTER SCIENCE ENGINEERING (CSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priya@2606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confirmPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emailid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addressline1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addressline2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pincode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO 3/343, Korai road, Indhira nagar, Shanmugapuram, Ambattur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near to Kallikuppam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">india</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chennai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">Bhartha vidhayalaya MHSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board Of Secondary Education, Assam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careerobj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Category (GC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports,Reading,Watching news and latest update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An excellent academic record, ability to understand and test software.</t>
   </si>
 </sst>
 </file>
@@ -169,7 +261,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -217,6 +309,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,15 +375,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -563,9 +673,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="priya.t+studentdemo1@icanio.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -590,16 +697,16 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -634,10 +741,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -645,7 +752,7 @@
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -671,16 +778,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -694,8 +801,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="priya.t+studentdemo1@icanio.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Priya@2606"/>
+    <hyperlink ref="B2" r:id="rId1" display="Priya@2606"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -714,73 +820,255 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>34876</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>600099</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>34876</v>
+        <v>51</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>600099</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="O1:T2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="156.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -11,10 +11,9 @@
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="EmailRegistration" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="SetPassword" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="LoginAsStudent" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="PersonalDetails" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="EdicationalDetails" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="AdditionalDetails" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="EducationalDetails" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="AdditionalDetails" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="PersonalDetails" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -73,7 +72,7 @@
     <t xml:space="preserve">Thangaraj</t>
   </si>
   <si>
-    <t xml:space="preserve">priya.t+student31@icanio.com</t>
+    <t xml:space="preserve">priya.t+student50@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Nadu</t>
@@ -112,7 +111,94 @@
     <t xml:space="preserve">confirmPassword</t>
   </si>
   <si>
-    <t xml:space="preserve">emailid</t>
+    <t xml:space="preserve">schlname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthSchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthmonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthpercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthcity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugpercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sethu Bhaskara MHSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute Of Open Schooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhartha vidhayalaya MHSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board Of Secondary Education, Assam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careerobj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports,Reading,Watching news and latest update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An excellent academic record, ability to understand and test software.</t>
   </si>
   <si>
     <t xml:space="preserve">RegNo</t>
@@ -145,112 +231,13 @@
     <t xml:space="preserve">Female</t>
   </si>
   <si>
-    <t xml:space="preserve">NO 3/343, Korai road, Indhira nagar, Shanmugapuram, Ambattur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near to Kallikuppam</t>
+    <t xml:space="preserve">No:1 Gandhi Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMBT</t>
   </si>
   <si>
     <t xml:space="preserve">india</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chennai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schlname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthSchool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthBoard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthmonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthyear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthpercentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthstate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthcity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ugpercentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sethu Bhaskara MHSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Institute Of Open Schooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chenna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhartha vidhayalaya MHSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Board Of Secondary Education, Assam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hobbies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lang1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lang2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">careerobj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Category (GC) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports,Reading,Watching news and latest update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An excellent academic record, ability to understand and test software.</t>
   </si>
 </sst>
 </file>
@@ -285,9 +272,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -304,16 +297,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFBCBEC4"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,7 +345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,30 +359,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -635,28 +630,28 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>8122448784</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -691,7 +686,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -703,13 +698,13 @@
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -735,7 +730,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -749,7 +744,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -775,7 +770,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -788,21 +783,96 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Priya@2606"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -818,76 +888,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>34876</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" s="9" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>600099</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -905,170 +958,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="E1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>2019</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="O1:T2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O1" s="0" t="s">
+      <c r="G1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="7" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>6374266</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>36703</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="156.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>74</v>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>600099</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -14,6 +14,8 @@
     <sheet name="EducationalDetails" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="AdditionalDetails" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="PersonalDetails" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="ProjectandInternship" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -66,13 +68,13 @@
     <t xml:space="preserve">endyear</t>
   </si>
   <si>
-    <t xml:space="preserve">Priya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thangaraj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+student50@icanio.com</t>
+    <t xml:space="preserve">Ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentdemo67@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Nadu</t>
@@ -81,7 +83,7 @@
     <t xml:space="preserve">Chennai</t>
   </si>
   <si>
-    <t xml:space="preserve">A1 Global Institute of Engineering and Technology</t>
+    <t xml:space="preserve">Demo college of engineering 1</t>
   </si>
   <si>
     <t xml:space="preserve">BACHELOR OF ENGINEERING </t>
@@ -90,114 +92,120 @@
     <t xml:space="preserve">COMPUTER SCIENCE</t>
   </si>
   <si>
+    <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priya@2606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schlname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthSchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthmonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthpercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelfthcity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugpercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sethu Bhaskara MHSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute Of Open Schooling</t>
+  </si>
+  <si>
     <t xml:space="preserve">June</t>
   </si>
   <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priya@2606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confirmPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schlname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthSchool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthBoard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthmonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthyear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthpercentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthstate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelfthcity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ugpercentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sethu Bhaskara MHSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Institute Of Open Schooling</t>
+    <t xml:space="preserve">Tamil Nad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhartha vidhayalaya MHSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board Of Secondary Education, Assam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careerobj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports,Reading,Watching news and latest update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil</t>
   </si>
   <si>
-    <t xml:space="preserve">Chenna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhartha vidhayalaya MHSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Board Of Secondary Education, Assam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hobbies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lang1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lang2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">careerobj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports,Reading,Watching news and latest update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
     <t xml:space="preserve">An excellent academic record, ability to understand and test software.</t>
   </si>
   <si>
@@ -228,7 +236,7 @@
     <t xml:space="preserve">Pincode</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
+    <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">No:1 Gandhi Road</t>
@@ -237,18 +245,187 @@
     <t xml:space="preserve">CMBT</t>
   </si>
   <si>
-    <t xml:space="preserve">india</t>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projectTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endMOnth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projectcertificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interncompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internstartMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internstartYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internendMOnth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internendYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internfunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internrole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internindustry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interndescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internskill1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internskill2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internskill3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internskill4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internskill5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interncertificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAILESH COMPANY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a project worked in the company for pratical experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\Project certificate.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techn parks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Web Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got best performer in the Internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle Sql Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\Internship Certificate.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,11 +446,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -345,7 +517,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,19 +526,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,7 +546,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,8 +562,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -626,45 +806,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>8122448784</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -698,13 +878,13 @@
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -729,7 +909,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -744,7 +924,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -806,22 +986,22 @@
       <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -833,43 +1013,43 @@
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="O2" s="1" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -891,49 +1071,49 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" s="9" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -961,64 +1141,64 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>6374266</v>
+        <v>889756</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>36703</v>
+        <v>36590</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>600099</v>
@@ -1033,4 +1213,241 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -15,7 +15,7 @@
     <sheet name="AdditionalDetails" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="PersonalDetails" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="ProjectandInternship" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="WorkExperience" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="158">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">endyear</t>
   </si>
   <si>
-    <t xml:space="preserve">Ram</t>
+    <t xml:space="preserve">Prem</t>
   </si>
   <si>
     <t xml:space="preserve">Kumar</t>
   </si>
   <si>
-    <t xml:space="preserve">priya.t+studentdemo67@icanio.com</t>
+    <t xml:space="preserve">priya.t+studentdemo68@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Nadu</t>
@@ -414,6 +414,93 @@
   </si>
   <si>
     <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\Internship Certificate.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobtitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Companyname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startmonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noticeperiod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awardname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AwardReceivedname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AwardDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bestperformancecertificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrontEnd Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icanio Technologies 5.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Developer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Web Developer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Industry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need a career growth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodejs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angularjs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For my work effect received a Best performer award.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\Bestperformance certificate.jpg</t>
   </si>
 </sst>
 </file>
@@ -517,7 +604,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,10 +650,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,7 +843,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -848,6 +931,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="priya.t+studentdemo68@icanio.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1277,49 +1363,49 @@
       <c r="P1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1372,49 +1458,49 @@
       <c r="P2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="10" t="n">
         <v>2023</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="10" t="n">
         <v>2023</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AE2" s="0" t="s">
+      <c r="AE2" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1434,14 +1520,115 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>45530</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
@@ -16,6 +16,8 @@
     <sheet name="PersonalDetails" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="ProjectandInternship" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="WorkExperience" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="CoursesAndTraining" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="ProofAndDocument" sheetId="10" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="175">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -68,13 +70,13 @@
     <t xml:space="preserve">endyear</t>
   </si>
   <si>
-    <t xml:space="preserve">Prem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentdemo68@icanio.com</t>
+    <t xml:space="preserve">Shanmugapriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thangaraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentdemo76@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Nadu</t>
@@ -236,7 +238,7 @@
     <t xml:space="preserve">Pincode</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
+    <t xml:space="preserve">Female</t>
   </si>
   <si>
     <t xml:space="preserve">No:1 Gandhi Road</t>
@@ -467,31 +469,28 @@
     <t xml:space="preserve">FrontEnd Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">Icanio Technologies 5.0 </t>
+    <t xml:space="preserve">Icanio Technologies 5.0</t>
   </si>
   <si>
     <t xml:space="preserve">August</t>
   </si>
   <si>
-    <t xml:space="preserve">Frontend Developer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junior Web Developer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Industry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need a career growth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nodejs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angularjs </t>
+    <t xml:space="preserve">Frontend Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need a career growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodejs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angularjs</t>
   </si>
   <si>
     <t xml:space="preserve">Best Performance</t>
@@ -501,6 +500,60 @@
   </si>
   <si>
     <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\Bestperformance certificate.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instituteName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coursestartmonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coursestartyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courseendmonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courseendyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CourseName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CourseDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CourseCertificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besant Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java full stack developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To get the additional knowledge i undergone courses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\CourseCertificate.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDproof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addressproof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\DrivingLicense.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\Pancard.jpg</t>
   </si>
 </sst>
 </file>
@@ -512,7 +565,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -561,6 +614,13 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC77DBB"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -604,7 +664,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,6 +717,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,7 +774,7 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFC77DBB"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -842,8 +910,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -931,12 +999,49 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="priya.t+studentdemo68@icanio.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -995,7 +1100,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1144,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1226,7 +1331,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1263,10 +1368,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>889756</v>
+        <v>857556</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>36590</v>
+        <v>36489</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -1522,110 +1627,212 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>45195</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>2022</v>
-      </c>
       <c r="E2" s="0" t="n">
-        <v>10</v>
+        <v>2023</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="J2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>45530</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>157</v>
+      <c r="K2" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
@@ -70,13 +70,13 @@
     <t xml:space="preserve">endyear</t>
   </si>
   <si>
-    <t xml:space="preserve">Shanmugapriya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thangaraj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentdemo76@icanio.com</t>
+    <t xml:space="preserve">Srikala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentdemo83@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Nadu</t>
@@ -664,7 +664,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -713,15 +713,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -910,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -989,13 +981,13 @@
         <v>21</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -1017,24 +1009,24 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="10" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1143,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,7 +1199,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>68</v>
@@ -1228,7 +1220,7 @@
         <v>43</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>53</v>
@@ -1331,7 +1323,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1368,10 +1360,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>857556</v>
+        <v>197865</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>36489</v>
+        <v>36879</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -1752,86 +1744,86 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="16.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="10" t="n">
         <v>2023</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="10" t="s">
         <v>170</v>
       </c>
     </row>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -70,13 +70,13 @@
     <t xml:space="preserve">endyear</t>
   </si>
   <si>
-    <t xml:space="preserve">Srikala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karthik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentdemo83@icanio.com</t>
+    <t xml:space="preserve">Vijay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentdemo90@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Nadu</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Pincode</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
+    <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">No:1 Gandhi Road</t>
@@ -903,7 +903,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>197865</v>
+        <v>12309876</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>36879</v>
+        <v>34967</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -1405,8 +1405,8 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1517,13 +1517,13 @@
         <v>43</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>106</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>105</v>
@@ -1562,13 +1562,13 @@
         <v>117</v>
       </c>
       <c r="S2" s="10" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>118</v>
       </c>
       <c r="U2" s="10" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>119</v>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,6 +18,9 @@
     <sheet name="WorkExperience" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="CoursesAndTraining" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="ProofAndDocument" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="ApplyRole" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="Feedback" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="UploadResume" sheetId="13" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="185">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -70,13 +73,13 @@
     <t xml:space="preserve">endyear</t>
   </si>
   <si>
-    <t xml:space="preserve">Vijay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentdemo90@icanio.com</t>
+    <t xml:space="preserve">Cathalyin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentrolecreation3@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Nadu</t>
@@ -238,7 +241,7 @@
     <t xml:space="preserve">Pincode</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
+    <t xml:space="preserve">Female</t>
   </si>
   <si>
     <t xml:space="preserve">No:1 Gandhi Road</t>
@@ -370,7 +373,7 @@
     <t xml:space="preserve">C++</t>
   </si>
   <si>
-    <t xml:space="preserve">Spring Boot</t>
+    <t xml:space="preserve">Selenium</t>
   </si>
   <si>
     <t xml:space="preserve">Css</t>
@@ -538,6 +541,9 @@
     <t xml:space="preserve">To get the additional knowledge i undergone courses.</t>
   </si>
   <si>
+    <t xml:space="preserve">communication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reactjs</t>
   </si>
   <si>
@@ -554,6 +560,33 @@
   </si>
   <si>
     <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\Pancard.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PluginLive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good and User Friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resumefile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\ICANIO-10090\Pictures\Resume.jpg</t>
   </si>
 </sst>
 </file>
@@ -664,7 +697,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,6 +747,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -902,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1016,18 +1057,132 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1135,8 +1290,8 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1254,7 +1409,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,7 +1479,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,7 +1515,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>12309876</v>
+        <v>2345</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>34967</v>
@@ -1406,7 +1561,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1619,8 +1774,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1744,7 +1899,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1815,16 +1970,16 @@
         <v>168</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="186">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -73,13 +73,13 @@
     <t xml:space="preserve">endyear</t>
   </si>
   <si>
-    <t xml:space="preserve">Cathalyin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentrolecreation3@icanio.com</t>
+    <t xml:space="preserve">Stephen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentrolecreation17@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil Nadu</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Demo college of engineering 1</t>
   </si>
   <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING </t>
+    <t xml:space="preserve">BACHELOR OF COMPUTER APPLICATIONS </t>
   </si>
   <si>
     <t xml:space="preserve">COMPUTER SCIENCE</t>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">twelfthpercentage</t>
   </si>
   <si>
+    <t xml:space="preserve">twelfthSkills</t>
+  </si>
+  <si>
     <t xml:space="preserve">twelfthstate</t>
   </si>
   <si>
@@ -175,7 +178,10 @@
     <t xml:space="preserve">Bhartha vidhayalaya MHSS</t>
   </si>
   <si>
-    <t xml:space="preserve">Board Of Secondary Education, Assam</t>
+    <t xml:space="preserve">CBSE (Central Board of Secondary Education) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication</t>
   </si>
   <si>
     <t xml:space="preserve">caste</t>
@@ -241,7 +247,7 @@
     <t xml:space="preserve">Pincode</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
+    <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">No:1 Gandhi Road</t>
@@ -409,9 +415,6 @@
     <t xml:space="preserve">Data Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
     <t xml:space="preserve">Database Management</t>
   </si>
   <si>
@@ -487,9 +490,6 @@
     <t xml:space="preserve">Need a career growth.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nodejs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Javascript</t>
   </si>
   <si>
@@ -568,13 +568,16 @@
     <t xml:space="preserve">Quality Roles</t>
   </si>
   <si>
-    <t xml:space="preserve">Database Role</t>
+    <t xml:space="preserve">DataBase Designer</t>
   </si>
   <si>
     <t xml:space="preserve">reference</t>
   </si>
   <si>
     <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Designer</t>
   </si>
   <si>
     <t xml:space="preserve">PluginLive</t>
@@ -642,16 +645,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFBCBEC4"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <color rgb="FFC77DBB"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFC77DBB"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -697,7 +700,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,6 +717,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -722,11 +729,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,18 +750,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -990,7 +985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1007,7 @@
       <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -1056,18 +1051,18 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1089,7 +1084,7 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -1127,19 +1122,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1147,8 +1145,11 @@
       <c r="A2" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="11" t="s">
         <v>182</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1176,13 +1177,13 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>183</v>
+      <c r="A1" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>184</v>
+      <c r="A2" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1217,13 @@
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1262,7 +1263,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1288,10 +1289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,34 +1325,37 @@
       <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2014</v>
@@ -1360,19 +1364,19 @@
         <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>2016</v>
@@ -1381,12 +1385,15 @@
         <v>53</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>76</v>
       </c>
     </row>
@@ -1416,49 +1423,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1479,58 +1494,58 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>68</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>2345</v>
-      </c>
-      <c r="B2" s="11" t="n">
-        <v>34967</v>
+        <v>9876</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>37502</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -1560,200 +1575,200 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC2" activeCellId="0" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="O1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="AD1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="A2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="10" t="n">
+      <c r="E2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="11" t="n">
         <v>2023</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="I2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="L2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>114</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="P2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="Q2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="T2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="U2" s="10" t="n">
+      <c r="T2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="Z2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AA2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AB2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AD2" s="4" t="s">
         <v>128</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1774,109 +1789,109 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>144</v>
       </c>
+      <c r="P1" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="C2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="12" t="n">
         <v>45195</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1899,86 +1914,86 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="15.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="16.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="16.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="10" t="n">
+      <c r="D2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="11" t="n">
         <v>2023</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>171</v>
       </c>
     </row>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DT1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="5:5 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="5:5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1938,7 +1938,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="5:5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1972,7 +1972,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="5:5 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2068,8 +2068,8 @@
   </sheetPr>
   <dimension ref="A1:DI5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3794,7 +3794,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="5:5 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3839,8 +3839,8 @@
   </sheetPr>
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="5:5 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4221,7 +4221,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="1" sqref="5:5 H7"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4606,7 +4606,7 @@
   <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="5:5 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6082,7 +6082,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="5:5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6126,7 +6126,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="5:5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6169,7 +6169,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="5:5 Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6311,7 +6311,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="5:5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6389,7 +6389,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="5:5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6477,7 +6477,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG2" activeCellId="1" sqref="5:5 AG2"/>
+      <selection pane="topLeft" activeCell="AG2" activeCellId="0" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6691,7 +6691,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="5:5 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6815,7 +6815,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="5:5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Excel/PluginLive Automation Students Onboarding.xlsx
+++ b/Excel/PluginLive Automation Students Onboarding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationForm" sheetId="1" state="visible" r:id="rId3"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="371">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -790,6 +790,414 @@
     <t xml:space="preserve">workbestperformancecertificate</t>
   </si>
   <si>
+    <t xml:space="preserve">Sanakima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+automationdemo5@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHELOR OF ENGINEERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\ICANIO-10090\Downloads\download (1).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No: 1 Gandhi Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arumbakkam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai Public School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICSE/ISC (Council for the Indian School Certificate Examinations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALLAST NADAM INTERNATIONAL B V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT and Information Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORLDWIDE RESOURCES HOLDINGS LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECISION DRILLING CYPRUS LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+automationdemo6@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No: 3/343, Korai road, Shanmugapuram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambattur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+automationdemo12@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor Of Commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Resource Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No: 26, Love street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiruvallur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVE LISTENING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAMWORK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEADERSHIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINDUSTAN FASHIONS LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training and Development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECRUIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFLICT MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidate screening software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">candidate screening process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamwork skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active listening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATA CONSULTANCY SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Recruiter Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staffing &amp; Recuritment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qspiders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noOfcandidates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enddate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tier1MinRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tier1MaxRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workfromOfz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">averagemark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roundname1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round1Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roundname2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round2Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roundname3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round3Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clgName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clgName1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clgName2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please check the eligibility criteria before Applying the role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Btech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Tech - Artificial Intelligence And Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you Okay to Relocate to Chennai?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All The Best Do Well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must Have knowledge regarding the job position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion regarding the Location, Shift and Package also About the Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo college of engineering 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo College of Engineering 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMO COLLEGE OF ENGINEERING 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Secretary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.M.S - Management Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation21@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy to communicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation24@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PluginLive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easily understandable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation27@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation25@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation34@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation40@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation42@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation120@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation122@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation123@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation124@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation125@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation127@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation128@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation126@icanio.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rohan</t>
   </si>
   <si>
@@ -799,415 +1207,25 @@
     <t xml:space="preserve">priya.t+automationdemo4@icanio.com</t>
   </si>
   <si>
-    <t xml:space="preserve">BACHELOR OF ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Science Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\ICANIO-10090\Downloads\download (1).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">No:10 MC Road</t>
   </si>
   <si>
     <t xml:space="preserve">Broadway</t>
   </si>
   <si>
-    <t xml:space="preserve">Chenna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chennai Public School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICSE/ISC (Council for the Indian School Certificate Examinations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chenn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALLAST NADAM INTERNATIONAL B V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT and Information Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORLDWIDE RESOURCES HOLDINGS LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECISION DRILLING CYPRUS LIMITED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanakima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+automationdemo5@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No: 1 Gandhi Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arumbakkam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+automationdemo6@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No: 3/343, Korai road, Shanmugapuram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambattur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+automationdemo12@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor Of Commerce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Resource Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No: 26, Love street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiruvallur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVE LISTENING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEAMWORK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEADERSHIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HINDUSTAN FASHIONS LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training and Development </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECRUIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONFLICT MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candidate screening software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">candidate screening process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teamwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teamwork skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active listening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TATA CONSULTANCY SERVICES LIMITED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Recruiter Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staffing &amp; Recuritment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qspiders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noOfcandidates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enddate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tier1MinRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tier1MaxRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">workfromOfz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degree1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">averagemark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">option1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">option2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roundname1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round1Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roundname2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round2Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roundname3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round3Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clgName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clgName1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clgName2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please check the eligibility criteria before Applying the role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Btech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech - Artificial Intelligence And Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you Okay to Relocate to Chennai?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All The Best Do Well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must Have knowledge regarding the job position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR Discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discussion regarding the Location, Shift and Package also About the Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo college of engineering 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo College of Engineering 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMO COLLEGE OF ENGINEERING 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal Secretary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.M.S - Management Studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation21@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy to communicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation24@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PluginLive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easily understandable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation27@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation25@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation34@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation40@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation42@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation120@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation122@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation123@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation124@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation125@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation127@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation128@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation126@icanio.com</t>
+    <t xml:space="preserve">priya.t+studentcreation129@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation130@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation131@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation132@icanio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.t+studentcreation133@icanio.com</t>
   </si>
   <si>
     <t xml:space="preserve">priya.t+automationdemo15@icanio.com</t>
@@ -1220,21 +1238,6 @@
   </si>
   <si>
     <t xml:space="preserve">priya.t+automationdemo18@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation129@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation130@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation131@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation132@icanio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya.t+studentcreation133@icanio.com</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="169" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1375,13 +1378,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1428,7 +1424,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1513,10 +1509,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1539,10 +1531,6 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2066,10 +2054,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DI5"/>
+  <dimension ref="A1:DI4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2466,22 +2454,22 @@
         <v>25</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>122348</v>
+        <v>122349</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>227</v>
       </c>
       <c r="T2" s="12" t="n">
-        <v>36706</v>
+        <v>36337</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>81</v>
@@ -2490,16 +2478,16 @@
         <v>65</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>600099</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>47</v>
@@ -2514,10 +2502,10 @@
         <v>65</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>50</v>
@@ -2538,22 +2526,22 @@
         <v>65</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AT2" s="1" t="n">
         <v>89</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>114</v>
@@ -2571,13 +2559,13 @@
         <v>2023</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>119</v>
@@ -2601,7 +2589,7 @@
         <v>122</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>173</v>
@@ -2649,7 +2637,7 @@
         <v>150</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CB2" s="1" t="s">
         <v>151</v>
@@ -2697,7 +2685,7 @@
         <v>172</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CR2" s="1" t="n">
         <v>2021</v>
@@ -2753,13 +2741,13 @@
     </row>
     <row r="3" customFormat="false" ht="78.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>9080814197</v>
@@ -2804,16 +2792,16 @@
         <v>25</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>122349</v>
+        <v>122350</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>227</v>
       </c>
       <c r="T3" s="12" t="n">
-        <v>36337</v>
+        <v>35218</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>249</v>
@@ -2828,16 +2816,16 @@
         <v>65</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA3" s="1" t="n">
         <v>600099</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>47</v>
@@ -2852,10 +2840,10 @@
         <v>65</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>50</v>
@@ -2876,22 +2864,22 @@
         <v>65</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AT3" s="1" t="n">
         <v>89</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>114</v>
@@ -2909,13 +2897,13 @@
         <v>2023</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>119</v>
@@ -2939,7 +2927,7 @@
         <v>122</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>173</v>
@@ -2987,7 +2975,7 @@
         <v>150</v>
       </c>
       <c r="CA3" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CB3" s="1" t="s">
         <v>151</v>
@@ -3035,7 +3023,7 @@
         <v>172</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CR3" s="1" t="n">
         <v>2021</v>
@@ -3096,13 +3084,13 @@
       <c r="B4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>9080814197</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>8122448784</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -3112,22 +3100,22 @@
         <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>24</v>
@@ -3142,22 +3130,22 @@
         <v>25</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>122350</v>
+        <v>12347</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>227</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>35218</v>
+        <v>36341</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>81</v>
@@ -3166,16 +3154,16 @@
         <v>65</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA4" s="1" t="n">
         <v>600099</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>47</v>
@@ -3190,10 +3178,10 @@
         <v>65</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ4" s="4" t="s">
         <v>50</v>
@@ -3214,25 +3202,25 @@
         <v>65</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="AQ4" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR4" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS4" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>114</v>
+        <v>261</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>47</v>
@@ -3247,37 +3235,37 @@
         <v>2023</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>240</v>
+        <v>125</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="BC4" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BD4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BE4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>121</v>
+      <c r="BE4" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="BF4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG4" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>173</v>
@@ -3292,43 +3280,43 @@
         <v>2022</v>
       </c>
       <c r="BP4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BQ4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BR4" s="4" t="s">
-        <v>127</v>
+        <v>268</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="BS4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BT4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BU4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BV4" s="4" t="s">
+      <c r="BT4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BW4" s="4" t="s">
-        <v>131</v>
+      <c r="BU4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="BX4" s="4" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="BY4" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="CA4" s="4" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="CC4" s="1" t="n">
         <v>2022</v>
@@ -3337,13 +3325,13 @@
         <v>10</v>
       </c>
       <c r="CE4" s="4" t="s">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="CF4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>154</v>
+        <v>277</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="CH4" s="1" t="s">
         <v>155</v>
@@ -3352,10 +3340,10 @@
         <v>51</v>
       </c>
       <c r="CJ4" s="4" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="CK4" s="4" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>158</v>
@@ -3370,10 +3358,10 @@
         <v>160</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CR4" s="1" t="n">
         <v>2021</v>
@@ -3385,7 +3373,7 @@
         <v>2023</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>175</v>
@@ -3394,10 +3382,10 @@
         <v>176</v>
       </c>
       <c r="CX4" s="4" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="CY4" s="4" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="CZ4" s="1" t="s">
         <v>178</v>
@@ -3424,344 +3412,6 @@
         <v>65</v>
       </c>
       <c r="DH4" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="78.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>8122448784</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>12347</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="T5" s="12" t="n">
-        <v>36341</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA5" s="1" t="n">
-        <v>600099</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE5" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL5" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="AM5" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ5" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AR5" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="AS5" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="AT5" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX5" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ5" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE5" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="BF5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG5" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BK5" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BM5" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO5" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BP5" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BS5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BX5" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CA5" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CC5" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="CD5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="CE5" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="CF5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG5" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CI5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="CJ5" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK5" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="CM5" s="12" t="n">
-        <v>45295</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CP5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CQ5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CR5" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="CS5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CT5" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="CU5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="CW5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CX5" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="CY5" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="CZ5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="DB5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DC5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="DE5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="DF5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="DG5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="DH5" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3773,8 +3423,6 @@
     <hyperlink ref="P3" r:id="rId4" display="Priya@2606"/>
     <hyperlink ref="O4" r:id="rId5" display="Priya@2606"/>
     <hyperlink ref="P4" r:id="rId6" display="Priya@2606"/>
-    <hyperlink ref="O5" r:id="rId7" display="Priya@2606"/>
-    <hyperlink ref="P5" r:id="rId8" display="Priya@2606"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3839,8 +3487,8 @@
   </sheetPr>
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3856,40 +3504,40 @@
         <v>88</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>92</v>
@@ -3907,61 +3555,61 @@
         <v>96</v>
       </c>
       <c r="U1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z1" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AL1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AM1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="59.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,43 +3620,43 @@
         <v>196</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="22" t="n">
+        <v>45376</v>
+      </c>
+      <c r="H2" s="22" t="n">
+        <v>45422</v>
+      </c>
+      <c r="I2" s="23" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J2" s="23" t="n">
+        <v>400000</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="N2" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="O2" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="G2" s="23" t="n">
-        <v>45376</v>
-      </c>
-      <c r="H2" s="23" t="n">
-        <v>45422</v>
-      </c>
-      <c r="I2" s="24" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J2" s="24" t="n">
-        <v>400000</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="P2" s="20" t="s">
         <v>53</v>
@@ -4046,41 +3694,41 @@
       <c r="AA2" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF2" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AI2" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AK2" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AL2" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AM2" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="AL2" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,61 +3739,61 @@
         <v>196</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>318</v>
+        <v>332</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="G3" s="23" t="n">
+        <v>315</v>
+      </c>
+      <c r="G3" s="22" t="n">
         <v>45383</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="22" t="n">
         <v>45422</v>
       </c>
-      <c r="I3" s="24" t="n">
+      <c r="I3" s="23" t="n">
         <v>400000</v>
       </c>
-      <c r="J3" s="24" t="n">
+      <c r="J3" s="23" t="n">
         <v>400000</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>338</v>
+        <v>316</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>334</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q3" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="T3" s="20" t="s">
         <v>51</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="V3" s="13" t="n">
         <v>2020</v>
@@ -4165,41 +3813,41 @@
       <c r="AA3" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF3" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AK3" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AL3" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AM3" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="AJ3" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="AL3" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AM3" s="15" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4218,10 +3866,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4237,333 +3885,265 @@
         <v>186</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>126</v>
+      <c r="C2" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>126</v>
+      <c r="C3" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>126</v>
+      <c r="C4" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>126</v>
+      <c r="C5" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>126</v>
+      <c r="C6" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>126</v>
+      <c r="C7" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B8" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>126</v>
+      <c r="C8" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B9" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>126</v>
+      <c r="C9" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B10" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>126</v>
+      <c r="C10" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>126</v>
+      <c r="C11" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B12" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>126</v>
+      <c r="C12" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B13" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>126</v>
+      <c r="C13" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B14" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>126</v>
+      <c r="C14" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B15" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>126</v>
+      <c r="C15" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B16" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>126</v>
+      <c r="C16" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4583,10 +4163,6 @@
     <hyperlink ref="B14" r:id="rId13" display="Priya@2606"/>
     <hyperlink ref="B15" r:id="rId14" display="Priya@2606"/>
     <hyperlink ref="B16" r:id="rId15" display="Priya@2606"/>
-    <hyperlink ref="B17" r:id="rId16" display="Priya@2606"/>
-    <hyperlink ref="B18" r:id="rId17" display="Priya@2606"/>
-    <hyperlink ref="B19" r:id="rId18" display="Priya@2606"/>
-    <hyperlink ref="B20" r:id="rId19" display="Priya@2606"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4603,23 +4179,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DH12"/>
+  <dimension ref="A1:DH17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="78.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>358</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>223</v>
+        <v>359</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>9080814197</v>
@@ -4676,10 +4252,10 @@
         <v>78</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>81</v>
@@ -4688,16 +4264,16 @@
         <v>65</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA1" s="1" t="n">
         <v>600099</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>47</v>
@@ -4712,10 +4288,10 @@
         <v>65</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ1" s="4" t="s">
         <v>50</v>
@@ -4736,22 +4312,22 @@
         <v>65</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AT1" s="1" t="n">
         <v>89</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>114</v>
@@ -4769,13 +4345,13 @@
         <v>2023</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>119</v>
@@ -4799,7 +4375,7 @@
         <v>122</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>173</v>
@@ -4847,7 +4423,7 @@
         <v>150</v>
       </c>
       <c r="CA1" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CB1" s="1" t="s">
         <v>151</v>
@@ -4895,7 +4471,7 @@
         <v>172</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CR1" s="1" t="n">
         <v>2021</v>
@@ -4951,13 +4527,13 @@
     </row>
     <row r="2" customFormat="false" ht="78.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>9080814197</v>
@@ -5011,13 +4587,13 @@
         <v>36337</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>81</v>
@@ -5026,16 +4602,16 @@
         <v>65</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>600099</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>47</v>
@@ -5050,10 +4626,10 @@
         <v>65</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>50</v>
@@ -5074,22 +4650,22 @@
         <v>65</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AT2" s="1" t="n">
         <v>89</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>114</v>
@@ -5107,13 +4683,13 @@
         <v>2023</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>119</v>
@@ -5137,7 +4713,7 @@
         <v>122</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>173</v>
@@ -5185,7 +4761,7 @@
         <v>150</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CB2" s="1" t="s">
         <v>151</v>
@@ -5233,7 +4809,7 @@
         <v>172</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CR2" s="1" t="n">
         <v>2021</v>
@@ -5289,13 +4865,13 @@
     </row>
     <row r="3" customFormat="false" ht="78.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>9080814197</v>
@@ -5352,10 +4928,10 @@
         <v>78</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>81</v>
@@ -5364,16 +4940,16 @@
         <v>65</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA3" s="1" t="n">
         <v>600099</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>47</v>
@@ -5388,10 +4964,10 @@
         <v>65</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>50</v>
@@ -5412,22 +4988,22 @@
         <v>65</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AT3" s="1" t="n">
         <v>89</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>114</v>
@@ -5445,13 +5021,13 @@
         <v>2023</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>119</v>
@@ -5475,7 +5051,7 @@
         <v>122</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>173</v>
@@ -5523,7 +5099,7 @@
         <v>150</v>
       </c>
       <c r="CA3" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CB3" s="1" t="s">
         <v>151</v>
@@ -5571,7 +5147,7 @@
         <v>172</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CR3" s="1" t="n">
         <v>2021</v>
@@ -5627,13 +5203,13 @@
     </row>
     <row r="6" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>8122448784</v>
@@ -5648,10 +5224,10 @@
         <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>47</v>
@@ -5687,13 +5263,13 @@
         <v>36341</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>81</v>
@@ -5702,16 +5278,16 @@
         <v>65</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA6" s="1" t="n">
         <v>600099</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>47</v>
@@ -5726,10 +5302,10 @@
         <v>65</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ6" s="4" t="s">
         <v>50</v>
@@ -5750,25 +5326,25 @@
         <v>65</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AQ6" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AR6" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AS6" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AT6" s="1" t="n">
         <v>75</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AW6" s="1" t="s">
         <v>47</v>
@@ -5786,34 +5362,34 @@
         <v>125</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BD6" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BE6" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="BF6" s="20" t="s">
         <v>51</v>
       </c>
       <c r="BG6" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="BJ6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>173</v>
@@ -5828,13 +5404,13 @@
         <v>2022</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BS6" s="4" t="s">
         <v>128</v>
@@ -5843,25 +5419,25 @@
         <v>51</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="BY6" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="CB6" s="1" t="s">
         <v>47</v>
@@ -5873,13 +5449,13 @@
         <v>10</v>
       </c>
       <c r="CE6" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="CF6" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="CG6" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="CH6" s="1" t="s">
         <v>155</v>
@@ -5888,10 +5464,10 @@
         <v>51</v>
       </c>
       <c r="CJ6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK6" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="CK6" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>158</v>
@@ -5906,10 +5482,10 @@
         <v>160</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CR6" s="1" t="n">
         <v>2021</v>
@@ -5921,7 +5497,7 @@
         <v>2023</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>175</v>
@@ -5929,11 +5505,11 @@
       <c r="CW6" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CX6" s="21" t="s">
-        <v>286</v>
+      <c r="CX6" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="CY6" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="CZ6" s="1" t="s">
         <v>178</v>
@@ -5965,87 +5541,155 @@
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B9" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>347</v>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6063,6 +5707,10 @@
     <hyperlink ref="B10" r:id="rId11" display="Priya@2606"/>
     <hyperlink ref="B11" r:id="rId12" display="Priya@2606"/>
     <hyperlink ref="B12" r:id="rId13" display="Priya@2606"/>
+    <hyperlink ref="B14" r:id="rId14" display="Priya@2606"/>
+    <hyperlink ref="B15" r:id="rId15" display="Priya@2606"/>
+    <hyperlink ref="B16" r:id="rId16" display="Priya@2606"/>
+    <hyperlink ref="B17" r:id="rId17" display="Priya@2606"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
